--- a/writable/tmp/temp_dataSiswa.xlsx
+++ b/writable/tmp/temp_dataSiswa.xlsx
@@ -15,23 +15,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
+  <si>
+    <t>idreg</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
   <si>
     <t>nik</t>
   </si>
   <si>
-    <t>idreg</t>
-  </si>
-  <si>
-    <t>nama</t>
-  </si>
-  <si>
     <t>nisn</t>
   </si>
   <si>
-    <t>tempatlahir</t>
-  </si>
-  <si>
     <t>tgllahir</t>
   </si>
   <si>
@@ -59,22 +56,34 @@
     <t>nohp_ibu</t>
   </si>
   <si>
+    <t>nm_prodi</t>
+  </si>
+  <si>
+    <t>no_ijazah</t>
+  </si>
+  <si>
+    <t>tgl_ijazah</t>
+  </si>
+  <si>
+    <t>tgl_diterima</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>No. Register</t>
+  </si>
+  <si>
+    <t>Nama Lengkap</t>
+  </si>
+  <si>
     <t>NIK</t>
   </si>
   <si>
-    <t>No. Register</t>
-  </si>
-  <si>
-    <t>Nama Lengkap</t>
-  </si>
-  <si>
     <t>NISN</t>
   </si>
   <si>
-    <t>Tempat Lahir</t>
-  </si>
-  <si>
-    <t>Tanggal Lahir</t>
+    <t>Tempat, Tgl Lahir</t>
   </si>
   <si>
     <t>Jenis Kelamin</t>
@@ -99,6 +108,21 @@
   </si>
   <si>
     <t>No. HP Ibu</t>
+  </si>
+  <si>
+    <t>Program Studi</t>
+  </si>
+  <si>
+    <t>No. Ijazah</t>
+  </si>
+  <si>
+    <t>Tgl. Ijazah</t>
+  </si>
+  <si>
+    <t>Tgl Mulai Belajar</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -438,7 +462,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +470,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,49 +513,73 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
